--- a/Data Files/Data/LoginExcel.xlsx
+++ b/Data Files/Data/LoginExcel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>email</t>
   </si>
@@ -44,6 +44,15 @@
       <t>eemailc1@domain.com</t>
     </r>
   </si>
+  <si>
+    <t>Password is required.</t>
+  </si>
+  <si>
+    <t>Invalid password.</t>
+  </si>
+  <si>
+    <t>An email address required.</t>
+  </si>
 </sst>
 </file>
 
@@ -52,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -60,6 +69,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -76,7 +90,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,8 +103,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -117,6 +137,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -126,6 +168,24 @@
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -143,32 +203,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -191,6 +319,8 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -207,10 +337,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -387,11 +517,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -400,27 +533,27 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -677,10 +810,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -971,7 +1104,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1249,16 +1382,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1271,84 +1402,107 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" t="s" s="3">
+      <c r="B2" s="6"/>
+      <c r="C2" t="s" s="5">
         <v>4</v>
       </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="32.05" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" t="s" s="9">
         <v>4</v>
       </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" t="s" s="5">
+      <c r="A4" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="C4" t="s" s="9">
         <v>4</v>
       </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" ht="32.05" customHeight="1">
-      <c r="A5" t="s" s="5">
+      <c r="A5" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s" s="5">
-        <v>4</v>
-      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" ht="32.05" customHeight="1">
-      <c r="A6" t="s" s="5">
+      <c r="A6" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="C6" t="s" s="5">
-        <v>4</v>
-      </c>
+      <c r="C6" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" ht="32.05" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" t="s" s="5">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="C7" t="s" s="5">
-        <v>4</v>
-      </c>
+      <c r="C7" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="32.05" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" t="s" s="5">
+      <c r="A8" s="10"/>
+      <c r="B8" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="5">
-        <v>4</v>
-      </c>
+      <c r="C8" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="32.05" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" t="s" s="5">
-        <v>4</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Data Files/Data/LoginExcel.xlsx
+++ b/Data Files/Data/LoginExcel.xlsx
@@ -110,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -137,28 +137,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -168,24 +146,6 @@
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -203,57 +163,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -263,40 +179,16 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -320,7 +212,6 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1382,14 +1273,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1402,107 +1293,82 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="A2" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" t="s" s="5">
+      <c r="B2" s="4"/>
+      <c r="C2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="32.05" customHeight="1">
-      <c r="A3" t="s" s="9">
+      <c r="A3" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="B3" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="A4" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B4" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="C4" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
     </row>
     <row r="5" ht="32.05" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="A5" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" t="s" s="9">
+      <c r="B5" s="5"/>
+      <c r="C5" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
     </row>
     <row r="6" ht="32.05" customHeight="1">
-      <c r="A6" t="s" s="9">
+      <c r="A6" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="B6" t="s" s="9">
+      <c r="B6" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C6" t="s" s="9">
+      <c r="C6" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
     </row>
     <row r="7" ht="32.05" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" t="s" s="9">
+      <c r="A7" s="6"/>
+      <c r="B7" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="C7" t="s" s="9">
+      <c r="C7" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="32.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" t="s" s="9">
+      <c r="A8" s="6"/>
+      <c r="B8" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="9">
+      <c r="C8" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="32.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" t="s" s="9">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Data Files/Data/LoginExcel.xlsx
+++ b/Data Files/Data/LoginExcel.xlsx
@@ -5,13 +5,14 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId4"/>
+    <sheet name="EX01" sheetId="1" r:id="rId4"/>
+    <sheet name="EX02" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>email</t>
   </si>
@@ -52,6 +53,15 @@
   </si>
   <si>
     <t>An email address required.</t>
+  </si>
+  <si>
+    <t>email1234567@domain.com</t>
+  </si>
+  <si>
+    <t>Authentication failed.</t>
+  </si>
+  <si>
+    <t>HaHa123!@#</t>
   </si>
 </sst>
 </file>
@@ -110,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -163,13 +173,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -189,6 +214,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1381,4 +1415,119 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="3" width="16.3516" style="7" customWidth="1"/>
+    <col min="4" max="256" width="16.3516" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="26.7" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" t="s" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="26.7" customHeight="1">
+      <c r="A3" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="26.7" customHeight="1">
+      <c r="A4" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="26.7" customHeight="1">
+      <c r="A5" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" t="s" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="26.7" customHeight="1">
+      <c r="A6" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="26.7" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="26.7" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="26.7" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" t="s" s="3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" location="" tooltip="" display="eemailc1@domain.com"/>
+    <hyperlink ref="A6" r:id="rId2" location="" tooltip="" display="eemailc1@domain.com"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Data Files/Data/LoginExcel.xlsx
+++ b/Data Files/Data/LoginExcel.xlsx
@@ -7,12 +7,13 @@
   <sheets>
     <sheet name="EX01" sheetId="1" r:id="rId4"/>
     <sheet name="EX02" sheetId="2" r:id="rId5"/>
+    <sheet name="EX03" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>email</t>
   </si>
@@ -62,6 +63,12 @@
   </si>
   <si>
     <t>HaHa123!@#</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Hoa Tran</t>
   </si>
 </sst>
 </file>
@@ -194,7 +201,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -223,6 +230,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1530,4 +1540,53 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="3" width="16.3516" style="10" customWidth="1"/>
+    <col min="4" max="256" width="16.3516" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="26.35" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="3">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display="eemailc1@domain.com"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>